--- a/DRM_Output/8_Binomial_Convergence.xlsx
+++ b/DRM_Output/8_Binomial_Convergence.xlsx
@@ -465,13 +465,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>3897.476293418823</v>
+        <v>1872.985733816445</v>
       </c>
       <c r="C2" t="n">
-        <v>3944.455672420808</v>
+        <v>1919.607664224521</v>
       </c>
       <c r="D2" t="n">
-        <v>46.97937900198531</v>
+        <v>46.62193040807529</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -482,16 +482,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>3941.230903029766</v>
+        <v>1934.177743714316</v>
       </c>
       <c r="C3" t="n">
-        <v>3944.455672420808</v>
+        <v>1919.607664224521</v>
       </c>
       <c r="D3" t="n">
-        <v>3.224769391042628</v>
+        <v>14.57007948979572</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001016616821289062</v>
+        <v>0.0009992122650146484</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>3935.330876808893</v>
+        <v>1910.176359910381</v>
       </c>
       <c r="C4" t="n">
-        <v>3944.455672420808</v>
+        <v>1919.607664224521</v>
       </c>
       <c r="D4" t="n">
-        <v>9.124795611915488</v>
+        <v>9.431304314139879</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00318455696105957</v>
+        <v>0.004702091217041016</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>3939.912847169593</v>
+        <v>1914.885969708392</v>
       </c>
       <c r="C5" t="n">
-        <v>3944.455672420808</v>
+        <v>1919.607664224521</v>
       </c>
       <c r="D5" t="n">
-        <v>4.542825251215618</v>
+        <v>4.721694516128764</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01080322265625</v>
+        <v>0.0155632495880127</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>150</v>
       </c>
       <c r="B6" t="n">
-        <v>3941.431561305473</v>
+        <v>1916.458547072744</v>
       </c>
       <c r="C6" t="n">
-        <v>3944.455672420808</v>
+        <v>1919.607664224521</v>
       </c>
       <c r="D6" t="n">
-        <v>3.024111115335472</v>
+        <v>3.149117151776409</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03293323516845703</v>
+        <v>0.02375388145446777</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>200</v>
       </c>
       <c r="B7" t="n">
-        <v>3942.189266386179</v>
+        <v>1917.245334157494</v>
       </c>
       <c r="C7" t="n">
-        <v>3944.455672420808</v>
+        <v>1919.607664224521</v>
       </c>
       <c r="D7" t="n">
-        <v>2.266406034628744</v>
+        <v>2.362330067026733</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04645061492919922</v>
+        <v>0.0481877326965332</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>250</v>
       </c>
       <c r="B8" t="n">
-        <v>3942.643355943929</v>
+        <v>1917.717564708172</v>
       </c>
       <c r="C8" t="n">
-        <v>3944.455672420808</v>
+        <v>1919.607664224521</v>
       </c>
       <c r="D8" t="n">
-        <v>1.812316476879005</v>
+        <v>1.890099516348528</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08131766319274902</v>
+        <v>0.06074738502502441</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>300</v>
       </c>
       <c r="B9" t="n">
-        <v>3942.945858902262</v>
+        <v>1918.032450757965</v>
       </c>
       <c r="C9" t="n">
-        <v>3944.455672420808</v>
+        <v>1919.607664224521</v>
       </c>
       <c r="D9" t="n">
-        <v>1.509813518546707</v>
+        <v>1.575213466555624</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09495353698730469</v>
+        <v>0.0964202880859375</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>350</v>
       </c>
       <c r="B10" t="n">
-        <v>3943.161822661728</v>
+        <v>1918.257401449069</v>
       </c>
       <c r="C10" t="n">
-        <v>3944.455672420808</v>
+        <v>1919.607664224521</v>
       </c>
       <c r="D10" t="n">
-        <v>1.293849759080331</v>
+        <v>1.350262775451256</v>
       </c>
       <c r="E10" t="n">
-        <v>0.135195255279541</v>
+        <v>0.1336054801940918</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>400</v>
       </c>
       <c r="B11" t="n">
-        <v>3943.323735307986</v>
+        <v>1918.426131979988</v>
       </c>
       <c r="C11" t="n">
-        <v>3944.455672420808</v>
+        <v>1919.607664224521</v>
       </c>
       <c r="D11" t="n">
-        <v>1.131937112822015</v>
+        <v>1.181532244532264</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1769206523895264</v>
+        <v>0.1743059158325195</v>
       </c>
     </row>
   </sheetData>

--- a/DRM_Output/8_Binomial_Convergence.xlsx
+++ b/DRM_Output/8_Binomial_Convergence.xlsx
@@ -465,13 +465,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1872.985733816445</v>
+        <v>126.2000343139221</v>
       </c>
       <c r="C2" t="n">
-        <v>1919.607664224521</v>
+        <v>129.1329560818676</v>
       </c>
       <c r="D2" t="n">
-        <v>46.62193040807529</v>
+        <v>2.932921767945501</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -482,16 +482,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>1934.177743714316</v>
+        <v>130.3162413889534</v>
       </c>
       <c r="C3" t="n">
-        <v>1919.607664224521</v>
+        <v>129.1329560818676</v>
       </c>
       <c r="D3" t="n">
-        <v>14.57007948979572</v>
+        <v>1.183285307085725</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0009992122650146484</v>
+        <v>0.001015663146972656</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>1910.176359910381</v>
+        <v>128.5395653948307</v>
       </c>
       <c r="C4" t="n">
-        <v>1919.607664224521</v>
+        <v>129.1329560818676</v>
       </c>
       <c r="D4" t="n">
-        <v>9.431304314139879</v>
+        <v>0.5933906870369583</v>
       </c>
       <c r="E4" t="n">
-        <v>0.004702091217041016</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>1914.885969708392</v>
+        <v>128.835875071269</v>
       </c>
       <c r="C5" t="n">
-        <v>1919.607664224521</v>
+        <v>129.1329560818676</v>
       </c>
       <c r="D5" t="n">
-        <v>4.721694516128764</v>
+        <v>0.2970810105986175</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0155632495880127</v>
+        <v>0.01066827774047852</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>150</v>
       </c>
       <c r="B6" t="n">
-        <v>1916.458547072744</v>
+        <v>128.9348177333038</v>
       </c>
       <c r="C6" t="n">
-        <v>1919.607664224521</v>
+        <v>129.1329560818676</v>
       </c>
       <c r="D6" t="n">
-        <v>3.149117151776409</v>
+        <v>0.1981383485638162</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02375388145446777</v>
+        <v>0.02142548561096191</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>200</v>
       </c>
       <c r="B7" t="n">
-        <v>1917.245334157494</v>
+        <v>128.984320884846</v>
       </c>
       <c r="C7" t="n">
-        <v>1919.607664224521</v>
+        <v>129.1329560818676</v>
       </c>
       <c r="D7" t="n">
-        <v>2.362330067026733</v>
+        <v>0.1486351970216049</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0481877326965332</v>
+        <v>0.03911519050598145</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>250</v>
       </c>
       <c r="B8" t="n">
-        <v>1917.717564708172</v>
+        <v>129.0140328844778</v>
       </c>
       <c r="C8" t="n">
-        <v>1919.607664224521</v>
+        <v>129.1329560818676</v>
       </c>
       <c r="D8" t="n">
-        <v>1.890099516348528</v>
+        <v>0.1189231973898472</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06074738502502441</v>
+        <v>0.07328176498413086</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>300</v>
       </c>
       <c r="B9" t="n">
-        <v>1918.032450757965</v>
+        <v>129.0338450791772</v>
       </c>
       <c r="C9" t="n">
-        <v>1919.607664224521</v>
+        <v>129.1329560818676</v>
       </c>
       <c r="D9" t="n">
-        <v>1.575213466555624</v>
+        <v>0.09911100269042095</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0964202880859375</v>
+        <v>0.1018211841583252</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>350</v>
       </c>
       <c r="B10" t="n">
-        <v>1918.257401449069</v>
+        <v>129.0479986959959</v>
       </c>
       <c r="C10" t="n">
-        <v>1919.607664224521</v>
+        <v>129.1329560818676</v>
       </c>
       <c r="D10" t="n">
-        <v>1.350262775451256</v>
+        <v>0.08495738587171786</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1336054801940918</v>
+        <v>0.1325685977935791</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>400</v>
       </c>
       <c r="B11" t="n">
-        <v>1918.426131979988</v>
+        <v>129.0586150271617</v>
       </c>
       <c r="C11" t="n">
-        <v>1919.607664224521</v>
+        <v>129.1329560818676</v>
       </c>
       <c r="D11" t="n">
-        <v>1.181532244532264</v>
+        <v>0.07434105470596819</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1743059158325195</v>
+        <v>0.1501760482788086</v>
       </c>
     </row>
   </sheetData>

--- a/DRM_Output/8_Binomial_Convergence.xlsx
+++ b/DRM_Output/8_Binomial_Convergence.xlsx
@@ -465,16 +465,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>126.2000343139221</v>
+        <v>126.2000381908484</v>
       </c>
       <c r="C2" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D2" t="n">
-        <v>2.932921767945501</v>
+        <v>2.932921865927639</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.001002311706542969</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>130.3162413889534</v>
+        <v>130.3162454040655</v>
       </c>
       <c r="C3" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D3" t="n">
-        <v>1.183285307085725</v>
+        <v>1.183285347289484</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001015663146972656</v>
+        <v>0.003117799758911133</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>128.5395653948307</v>
+        <v>128.5395693499148</v>
       </c>
       <c r="C4" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5933906870369583</v>
+        <v>0.5933907068611859</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0009999275207519531</v>
+        <v>0.006330966949462891</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>128.835875071269</v>
+        <v>128.8358790362535</v>
       </c>
       <c r="C5" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2970810105986175</v>
+        <v>0.2970810205224836</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01066827774047852</v>
+        <v>0.02584075927734375</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>150</v>
       </c>
       <c r="B6" t="n">
-        <v>128.9348177333038</v>
+        <v>128.9348217015932</v>
       </c>
       <c r="C6" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1981383485638162</v>
+        <v>0.1981383551828628</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02142548561096191</v>
+        <v>0.04352855682373047</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>200</v>
       </c>
       <c r="B7" t="n">
-        <v>128.984320884846</v>
+        <v>128.9843248547922</v>
       </c>
       <c r="C7" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1486351970216049</v>
+        <v>0.1486352019838364</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03911519050598145</v>
+        <v>0.06903243064880371</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>250</v>
       </c>
       <c r="B8" t="n">
-        <v>129.0140328844778</v>
+        <v>129.0140368554139</v>
       </c>
       <c r="C8" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1189231973898472</v>
+        <v>0.1189232013621222</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07328176498413086</v>
+        <v>0.09695816040039062</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>300</v>
       </c>
       <c r="B9" t="n">
-        <v>129.0338450791772</v>
+        <v>129.033849050779</v>
       </c>
       <c r="C9" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09911100269042095</v>
+        <v>0.09911100599700262</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1018211841583252</v>
+        <v>0.1606647968292236</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>350</v>
       </c>
       <c r="B10" t="n">
-        <v>129.0479986959959</v>
+        <v>129.0480026680666</v>
       </c>
       <c r="C10" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08495738587171786</v>
+        <v>0.08495738870945502</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1325685977935791</v>
+        <v>0.1708433628082275</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>400</v>
       </c>
       <c r="B11" t="n">
-        <v>129.0586150271617</v>
+        <v>129.0586189995869</v>
       </c>
       <c r="C11" t="n">
-        <v>129.1329560818676</v>
+        <v>129.132960056776</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07434105470596819</v>
+        <v>0.0743410571891161</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1501760482788086</v>
+        <v>0.2491321563720703</v>
       </c>
     </row>
   </sheetData>

--- a/DRM_Output/8_Binomial_Convergence.xlsx
+++ b/DRM_Output/8_Binomial_Convergence.xlsx
@@ -474,7 +474,7 @@
         <v>2.932921865927639</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001002311706542969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>1.183285347289484</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003117799758911133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0.5933907068611859</v>
       </c>
       <c r="E4" t="n">
-        <v>0.006330966949462891</v>
+        <v>0.00251460075378418</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>0.2970810205224836</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02584075927734375</v>
+        <v>0.01006746292114258</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0.1981383551828628</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04352855682373047</v>
+        <v>0.02332091331481934</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>0.1486352019838364</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06903243064880371</v>
+        <v>0.04246950149536133</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>0.1189232013621222</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09695816040039062</v>
+        <v>0.0638887882232666</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>0.09911100599700262</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1606647968292236</v>
+        <v>0.08762097358703613</v>
       </c>
     </row>
     <row r="10">
@@ -610,7 +610,7 @@
         <v>0.08495738870945502</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1708433628082275</v>
+        <v>0.1312329769134521</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         <v>0.0743410571891161</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2491321563720703</v>
+        <v>0.1921737194061279</v>
       </c>
     </row>
   </sheetData>
